--- a/sample/src1.xlsx
+++ b/sample/src1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>基本信息</t>
   </si>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t>董莉颖</t>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字</t>
+    </r>
   </si>
   <si>
     <t>余雨彤</t>
@@ -81,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +160,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -154,13 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -169,16 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +206,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -199,9 +237,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,64 +297,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,11 +516,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,224 +604,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="9.14285714285714" style="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
@@ -1092,20 +1114,20 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1113,7 +1135,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1124,7 +1146,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -1135,7 +1157,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -1146,7 +1168,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -1157,7 +1179,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -1168,7 +1190,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -1179,7 +1201,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -1190,7 +1212,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -1201,7 +1223,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -1212,30 +1234,33 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="18" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13">
         <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C14">
         <v>33</v>
@@ -1245,8 +1270,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
         <v>27</v>
@@ -1256,8 +1281,8 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1267,8 +1292,8 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
         <v>28</v>
@@ -1276,7 +1301,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f>SUM(C3:C17)</f>
